--- a/Pokemon_Server/data/pkm_pokemon_habitats.xlsx
+++ b/Pokemon_Server/data/pkm_pokemon_habitats.xlsx
@@ -52,10 +52,10 @@
     <t>urban</t>
   </si>
   <si>
-    <t>water's edge</t>
-  </si>
-  <si>
     <t>waters-edge</t>
+  </si>
+  <si>
+    <t>water''s edge</t>
   </si>
 </sst>
 </file>
@@ -518,10 +518,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" t="s">
         <v>12</v>
-      </c>
-      <c r="C10" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
